--- a/gdp.xlsx
+++ b/gdp.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="12940"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$N$2186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$N$2248</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -906,6 +907,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1167,14 +1175,14 @@
   <dimension ref="A1:O2248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2234" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2119" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2244" sqref="F2244"/>
+      <selection pane="bottomRight" activeCell="P2132" sqref="P2132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" style="6"/>
     <col min="2" max="2" width="14.375" style="6" customWidth="1"/>
@@ -97133,7 +97141,7 @@
       </c>
       <c r="O2186" s="6"/>
     </row>
-    <row r="2187" ht="17.55" spans="1:3">
+    <row r="2187" ht="14.75" spans="1:3">
       <c r="A2187" s="6">
         <v>2023</v>
       </c>
@@ -97144,7 +97152,7 @@
         <v>47353.7</v>
       </c>
     </row>
-    <row r="2188" ht="17.55" spans="1:3">
+    <row r="2188" ht="14.75" spans="1:3">
       <c r="A2188" s="6">
         <v>2023</v>
       </c>
@@ -97155,7 +97163,7 @@
         <v>17211.8</v>
       </c>
     </row>
-    <row r="2189" ht="17.55" spans="1:3">
+    <row r="2189" ht="14.75" spans="1:3">
       <c r="A2189" s="6">
         <v>2023</v>
       </c>
@@ -97166,7 +97174,7 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="2190" ht="17.55" spans="1:3">
+    <row r="2190" ht="14.75" spans="1:3">
       <c r="A2190" s="6">
         <v>2023</v>
       </c>
@@ -97177,7 +97185,7 @@
         <v>26050.8</v>
       </c>
     </row>
-    <row r="2191" ht="17.55" spans="1:3">
+    <row r="2191" ht="14.75" spans="1:3">
       <c r="A2191" s="6">
         <v>2023</v>
       </c>
@@ -97188,7 +97196,7 @@
         <v>25020.5</v>
       </c>
     </row>
-    <row r="2192" ht="17.55" spans="1:3">
+    <row r="2192" ht="14.75" spans="1:3">
       <c r="A2192" s="6">
         <v>2023</v>
       </c>
@@ -97199,7 +97207,7 @@
         <v>31389.8</v>
       </c>
     </row>
-    <row r="2193" ht="17.55" spans="1:3">
+    <row r="2193" ht="14.75" spans="1:3">
       <c r="A2193" s="6">
         <v>2023</v>
       </c>
@@ -97210,7 +97218,7 @@
         <v>13942.7</v>
       </c>
     </row>
-    <row r="2194" ht="17.55" spans="1:3">
+    <row r="2194" ht="14.75" spans="1:3">
       <c r="A2194" s="6">
         <v>2023</v>
       </c>
@@ -97221,7 +97229,7 @@
         <v>16470.7</v>
       </c>
     </row>
-    <row r="2195" ht="17.55" spans="1:3">
+    <row r="2195" ht="14.75" spans="1:3">
       <c r="A2195" s="6">
         <v>2023</v>
       </c>
@@ -97232,7 +97240,7 @@
         <v>51404.5</v>
       </c>
     </row>
-    <row r="2196" ht="17.55" spans="1:3">
+    <row r="2196" ht="14.75" spans="1:3">
       <c r="A2196" s="6">
         <v>2023</v>
       </c>
@@ -97243,7 +97251,7 @@
         <v>130924.3</v>
       </c>
     </row>
-    <row r="2197" ht="17.55" spans="1:3">
+    <row r="2197" ht="14.75" spans="1:3">
       <c r="A2197" s="6">
         <v>2023</v>
       </c>
@@ -97254,7 +97262,7 @@
         <v>85619.6</v>
       </c>
     </row>
-    <row r="2198" ht="17.55" spans="1:3">
+    <row r="2198" ht="14.75" spans="1:3">
       <c r="A2198" s="6">
         <v>2023</v>
       </c>
@@ -97265,7 +97273,7 @@
         <v>48227.5</v>
       </c>
     </row>
-    <row r="2199" ht="17.55" spans="1:3">
+    <row r="2199" ht="14.75" spans="1:3">
       <c r="A2199" s="6">
         <v>2023</v>
       </c>
@@ -97276,7 +97284,7 @@
         <v>54801.7</v>
       </c>
     </row>
-    <row r="2200" ht="17.55" spans="1:3">
+    <row r="2200" ht="14.75" spans="1:3">
       <c r="A2200" s="6">
         <v>2023</v>
       </c>
@@ -97287,7 +97295,7 @@
         <v>32677.1</v>
       </c>
     </row>
-    <row r="2201" ht="17.55" spans="1:3">
+    <row r="2201" ht="14.75" spans="1:3">
       <c r="A2201" s="6">
         <v>2023</v>
       </c>
@@ -97298,7 +97306,7 @@
         <v>94206.4</v>
       </c>
     </row>
-    <row r="2202" ht="17.55" spans="1:3">
+    <row r="2202" ht="14.75" spans="1:3">
       <c r="A2202" s="6">
         <v>2023</v>
       </c>
@@ -97309,7 +97317,7 @@
         <v>60627.7</v>
       </c>
     </row>
-    <row r="2203" ht="17.55" spans="1:3">
+    <row r="2203" ht="14.75" spans="1:3">
       <c r="A2203" s="6">
         <v>2023</v>
       </c>
@@ -97320,7 +97328,7 @@
         <v>56794.3</v>
       </c>
     </row>
-    <row r="2204" ht="17.55" spans="1:3">
+    <row r="2204" ht="14.75" spans="1:3">
       <c r="A2204" s="6">
         <v>2023</v>
       </c>
@@ -97331,7 +97339,7 @@
         <v>50667.5</v>
       </c>
     </row>
-    <row r="2205" ht="17.55" spans="1:3">
+    <row r="2205" ht="14.75" spans="1:3">
       <c r="A2205" s="6">
         <v>2023</v>
       </c>
@@ -97342,7 +97350,7 @@
         <v>137905.4</v>
       </c>
     </row>
-    <row r="2206" ht="17.55" spans="1:3">
+    <row r="2206" ht="14.75" spans="1:3">
       <c r="A2206" s="6">
         <v>2023</v>
       </c>
@@ -97353,7 +97361,7 @@
         <v>27501.7</v>
       </c>
     </row>
-    <row r="2207" ht="17.55" spans="1:3">
+    <row r="2207" ht="14.75" spans="1:3">
       <c r="A2207" s="6">
         <v>2023</v>
       </c>
@@ -97364,7 +97372,7 @@
         <v>7590.2</v>
       </c>
     </row>
-    <row r="2208" ht="17.55" spans="1:3">
+    <row r="2208" ht="14.75" spans="1:3">
       <c r="A2208" s="6">
         <v>2023</v>
       </c>
@@ -97375,7 +97383,7 @@
         <v>30614.3</v>
       </c>
     </row>
-    <row r="2209" ht="17.55" spans="1:3">
+    <row r="2209" ht="14.75" spans="1:3">
       <c r="A2209" s="6">
         <v>2023</v>
       </c>
@@ -97386,7 +97394,7 @@
         <v>61353.4</v>
       </c>
     </row>
-    <row r="2210" ht="17.55" spans="1:3">
+    <row r="2210" ht="14.75" spans="1:3">
       <c r="A2210" s="6">
         <v>2023</v>
       </c>
@@ -97397,7 +97405,7 @@
         <v>21513.7</v>
       </c>
     </row>
-    <row r="2211" ht="17.55" spans="1:3">
+    <row r="2211" ht="14.75" spans="1:3">
       <c r="A2211" s="6">
         <v>2023</v>
       </c>
@@ -97408,7 +97416,7 @@
         <v>30595.8</v>
       </c>
     </row>
-    <row r="2212" ht="17.55" spans="1:3">
+    <row r="2212" ht="14.75" spans="1:3">
       <c r="A2212" s="6">
         <v>2023</v>
       </c>
@@ -97419,7 +97427,7 @@
         <v>2532.9</v>
       </c>
     </row>
-    <row r="2213" ht="17.55" spans="1:3">
+    <row r="2213" ht="14.75" spans="1:3">
       <c r="A2213" s="6">
         <v>2023</v>
       </c>
@@ -97430,7 +97438,7 @@
         <v>33976.5</v>
       </c>
     </row>
-    <row r="2214" ht="17.55" spans="1:3">
+    <row r="2214" ht="14.75" spans="1:3">
       <c r="A2214" s="6">
         <v>2023</v>
       </c>
@@ -97441,7 +97449,7 @@
         <v>12345.7</v>
       </c>
     </row>
-    <row r="2215" ht="17.55" spans="1:3">
+    <row r="2215" ht="14.75" spans="1:3">
       <c r="A2215" s="6">
         <v>2023</v>
       </c>
@@ -97452,7 +97460,7 @@
         <v>3849.2</v>
       </c>
     </row>
-    <row r="2216" ht="17.55" spans="1:3">
+    <row r="2216" ht="14.75" spans="1:3">
       <c r="A2216" s="6">
         <v>2023</v>
       </c>
@@ -97463,7 +97471,7 @@
         <v>5368.8</v>
       </c>
     </row>
-    <row r="2217" ht="17.55" spans="1:3">
+    <row r="2217" ht="14.75" spans="1:3">
       <c r="A2217" s="6">
         <v>2023</v>
       </c>
@@ -97474,7 +97482,7 @@
         <v>19603.3</v>
       </c>
     </row>
-    <row r="2218" ht="17.55" spans="1:3">
+    <row r="2218" ht="14.75" spans="1:3">
       <c r="A2218" s="6">
         <v>2024</v>
       </c>
@@ -97485,7 +97493,7 @@
         <v>49843.1</v>
       </c>
     </row>
-    <row r="2219" ht="17.55" spans="1:3">
+    <row r="2219" ht="14.75" spans="1:3">
       <c r="A2219" s="6">
         <v>2024</v>
       </c>
@@ -97496,7 +97504,7 @@
         <v>18024.3</v>
       </c>
     </row>
-    <row r="2220" ht="17.55" spans="1:3">
+    <row r="2220" ht="14.75" spans="1:3">
       <c r="A2220" s="6">
         <v>2024</v>
       </c>
@@ -97507,7 +97515,7 @@
         <v>47526.9</v>
       </c>
     </row>
-    <row r="2221" ht="17.55" spans="1:3">
+    <row r="2221" ht="14.75" spans="1:3">
       <c r="A2221" s="6">
         <v>2024</v>
       </c>
@@ -97518,7 +97526,7 @@
         <v>25494.7</v>
       </c>
     </row>
-    <row r="2222" ht="17.55" spans="1:3">
+    <row r="2222" ht="14.75" spans="1:3">
       <c r="A2222" s="6">
         <v>2024</v>
       </c>
@@ -97529,7 +97537,7 @@
         <v>26314.6</v>
       </c>
     </row>
-    <row r="2223" ht="17.55" spans="1:3">
+    <row r="2223" ht="14.75" spans="1:3">
       <c r="A2223" s="6">
         <v>2024</v>
       </c>
@@ -97540,7 +97548,7 @@
         <v>32612.7</v>
       </c>
     </row>
-    <row r="2224" ht="17.55" spans="1:3">
+    <row r="2224" ht="14.75" spans="1:3">
       <c r="A2224" s="6">
         <v>2024</v>
       </c>
@@ -97551,7 +97559,7 @@
         <v>14361.2</v>
       </c>
     </row>
-    <row r="2225" ht="17.55" spans="1:3">
+    <row r="2225" ht="14.75" spans="1:3">
       <c r="A2225" s="6">
         <v>2024</v>
       </c>
@@ -97562,7 +97570,7 @@
         <v>16476.9</v>
       </c>
     </row>
-    <row r="2226" ht="17.55" spans="1:3">
+    <row r="2226" ht="14.75" spans="1:3">
       <c r="A2226" s="6">
         <v>2024</v>
       </c>
@@ -97573,7 +97581,7 @@
         <v>53926.7</v>
       </c>
     </row>
-    <row r="2227" ht="17.55" spans="1:3">
+    <row r="2227" ht="14.75" spans="1:3">
       <c r="A2227" s="6">
         <v>2024</v>
       </c>
@@ -97584,7 +97592,7 @@
         <v>137008</v>
       </c>
     </row>
-    <row r="2228" ht="17.55" spans="1:3">
+    <row r="2228" ht="14.75" spans="1:3">
       <c r="A2228" s="6">
         <v>2024</v>
       </c>
@@ -97595,7 +97603,7 @@
         <v>90130.6</v>
       </c>
     </row>
-    <row r="2229" ht="17.55" spans="1:3">
+    <row r="2229" ht="14.75" spans="1:3">
       <c r="A2229" s="6">
         <v>2024</v>
       </c>
@@ -97606,7 +97614,7 @@
         <v>50625.2</v>
       </c>
     </row>
-    <row r="2230" ht="17.55" spans="1:3">
+    <row r="2230" ht="14.75" spans="1:3">
       <c r="A2230" s="6">
         <v>2024</v>
       </c>
@@ -97617,7 +97625,7 @@
         <v>57761</v>
       </c>
     </row>
-    <row r="2231" ht="17.55" spans="1:3">
+    <row r="2231" ht="14.75" spans="1:3">
       <c r="A2231" s="6">
         <v>2024</v>
       </c>
@@ -97628,7 +97636,7 @@
         <v>34202.5</v>
       </c>
     </row>
-    <row r="2232" ht="17.55" spans="1:3">
+    <row r="2232" ht="14.75" spans="1:3">
       <c r="A2232" s="6">
         <v>2024</v>
       </c>
@@ -97639,7 +97647,7 @@
         <v>98565.8</v>
       </c>
     </row>
-    <row r="2233" ht="17.55" spans="1:3">
+    <row r="2233" ht="14.75" spans="1:3">
       <c r="A2233" s="6">
         <v>2024</v>
       </c>
@@ -97650,7 +97658,7 @@
         <v>63590</v>
       </c>
     </row>
-    <row r="2234" ht="17.55" spans="1:3">
+    <row r="2234" ht="14.75" spans="1:3">
       <c r="A2234" s="6">
         <v>2024</v>
       </c>
@@ -97661,7 +97669,7 @@
         <v>60013</v>
       </c>
     </row>
-    <row r="2235" ht="17.55" spans="1:3">
+    <row r="2235" ht="14.75" spans="1:3">
       <c r="A2235" s="6">
         <v>2024</v>
       </c>
@@ -97672,7 +97680,7 @@
         <v>53231</v>
       </c>
     </row>
-    <row r="2236" ht="17.55" spans="1:3">
+    <row r="2236" ht="14.75" spans="1:3">
       <c r="A2236" s="6">
         <v>2024</v>
       </c>
@@ -97683,7 +97691,7 @@
         <v>141633.8</v>
       </c>
     </row>
-    <row r="2237" ht="17.55" spans="1:3">
+    <row r="2237" ht="14.75" spans="1:3">
       <c r="A2237" s="6">
         <v>2024</v>
       </c>
@@ -97694,7 +97702,7 @@
         <v>28649.4</v>
       </c>
     </row>
-    <row r="2238" ht="17.55" spans="1:3">
+    <row r="2238" ht="14.75" spans="1:3">
       <c r="A2238" s="6">
         <v>2024</v>
       </c>
@@ -97705,7 +97713,7 @@
         <v>7935.7</v>
       </c>
     </row>
-    <row r="2239" ht="17.55" spans="1:3">
+    <row r="2239" ht="14.75" spans="1:3">
       <c r="A2239" s="6">
         <v>2024</v>
       </c>
@@ -97716,7 +97724,7 @@
         <v>32193.2</v>
       </c>
     </row>
-    <row r="2240" ht="17.55" spans="1:3">
+    <row r="2240" ht="14.75" spans="1:3">
       <c r="A2240" s="6">
         <v>2024</v>
       </c>
@@ -97727,7 +97735,7 @@
         <v>64697</v>
       </c>
     </row>
-    <row r="2241" ht="17.55" spans="1:3">
+    <row r="2241" ht="14.75" spans="1:3">
       <c r="A2241" s="6">
         <v>2024</v>
       </c>
@@ -97738,7 +97746,7 @@
         <v>22667.1</v>
       </c>
     </row>
-    <row r="2242" ht="17.55" spans="1:3">
+    <row r="2242" ht="14.75" spans="1:3">
       <c r="A2242" s="6">
         <v>2024</v>
       </c>
@@ -97749,7 +97757,7 @@
         <v>31534.1</v>
       </c>
     </row>
-    <row r="2243" ht="17.55" spans="1:3">
+    <row r="2243" ht="14.75" spans="1:3">
       <c r="A2243" s="6">
         <v>2024</v>
       </c>
@@ -97760,7 +97768,7 @@
         <v>2764.9</v>
       </c>
     </row>
-    <row r="2244" ht="17.55" spans="1:3">
+    <row r="2244" ht="14.75" spans="1:3">
       <c r="A2244" s="6">
         <v>2024</v>
       </c>
@@ -97771,7 +97779,7 @@
         <v>35538.8</v>
       </c>
     </row>
-    <row r="2245" ht="17.55" spans="1:3">
+    <row r="2245" ht="14.75" spans="1:3">
       <c r="A2245" s="6">
         <v>2024</v>
       </c>
@@ -97782,7 +97790,7 @@
         <v>13002.9</v>
       </c>
     </row>
-    <row r="2246" ht="17.55" spans="1:3">
+    <row r="2246" ht="14.75" spans="1:3">
       <c r="A2246" s="6">
         <v>2024</v>
       </c>
@@ -97793,7 +97801,7 @@
         <v>3950.8</v>
       </c>
     </row>
-    <row r="2247" ht="17.55" spans="1:3">
+    <row r="2247" ht="14.75" spans="1:3">
       <c r="A2247" s="6">
         <v>2024</v>
       </c>
@@ -97804,7 +97812,7 @@
         <v>5502.8</v>
       </c>
     </row>
-    <row r="2248" ht="17.55" spans="1:3">
+    <row r="2248" ht="14.75" spans="1:3">
       <c r="A2248" s="6">
         <v>2024</v>
       </c>
@@ -97816,8 +97824,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N2186" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:N2186">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N2248" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:N2248">
       <sortCondition ref="A1:A2122"/>
     </sortState>
     <extLst/>
@@ -97830,16 +97838,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.4642857142857" customWidth="1"/>
+    <col min="1" max="1" width="22.4666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -97874,7 +97882,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:11">
+    <row r="2" ht="14.75" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -97909,7 +97917,7 @@
         <v>26034.1</v>
       </c>
     </row>
-    <row r="3" ht="17.55" spans="1:11">
+    <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -97944,7 +97952,7 @@
         <v>10889.2</v>
       </c>
     </row>
-    <row r="4" ht="17.55" spans="1:11">
+    <row r="4" ht="14.75" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -97979,7 +97987,7 @@
         <v>26744.1</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="1:11">
+    <row r="5" ht="14.75" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -98014,7 +98022,7 @@
         <v>12036.1</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="1:11">
+    <row r="6" ht="14.75" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -98049,7 +98057,7 @@
         <v>13062.7</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="1:11">
+    <row r="7" ht="14.75" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -98084,7 +98092,7 @@
         <v>20657.8</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="1:11">
+    <row r="8" ht="14.75" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -98119,7 +98127,7 @@
         <v>10162.9</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="1:11">
+    <row r="9" ht="14.75" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -98154,7 +98162,7 @@
         <v>12023.2</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="1:11">
+    <row r="10" ht="14.75" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -98189,7 +98197,7 @@
         <v>27821.6</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="1:11">
+    <row r="11" ht="14.75" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -98224,7 +98232,7 @@
         <v>71876</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="1:11">
+    <row r="12" ht="14.75" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -98259,7 +98267,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="13" ht="17.55" spans="1:11">
+    <row r="13" ht="14.75" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -98294,7 +98302,7 @@
         <v>24142.7</v>
       </c>
     </row>
-    <row r="14" ht="17.55" spans="1:11">
+    <row r="14" ht="14.75" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -98329,7 +98337,7 @@
         <v>27307.5</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="1:11">
+    <row r="15" ht="14.75" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -98364,7 +98372,7 @@
         <v>17031.1</v>
       </c>
     </row>
-    <row r="16" ht="17.55" spans="1:11">
+    <row r="16" ht="14.75" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -98399,7 +98407,7 @@
         <v>56159.1</v>
       </c>
     </row>
-    <row r="17" ht="17.55" spans="1:11">
+    <row r="17" ht="14.75" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -98434,7 +98442,7 @@
         <v>36798.2</v>
       </c>
     </row>
-    <row r="18" ht="17.55" spans="1:11">
+    <row r="18" ht="14.75" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -98469,7 +98477,7 @@
         <v>30661.6</v>
       </c>
     </row>
-    <row r="19" ht="17.55" spans="1:11">
+    <row r="19" ht="14.75" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -98504,7 +98512,7 @@
         <v>28811.7</v>
       </c>
     </row>
-    <row r="20" ht="17.55" spans="1:11">
+    <row r="20" ht="14.75" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -98539,7 +98547,7 @@
         <v>75820.8</v>
       </c>
     </row>
-    <row r="21" ht="17.55" spans="1:11">
+    <row r="21" ht="14.75" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -98574,7 +98582,7 @@
         <v>15030.2</v>
       </c>
     </row>
-    <row r="22" ht="17.55" spans="1:11">
+    <row r="22" ht="14.75" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -98609,7 +98617,7 @@
         <v>3782.7</v>
       </c>
     </row>
-    <row r="23" ht="17.55" spans="1:11">
+    <row r="23" ht="14.75" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -98644,7 +98652,7 @@
         <v>16305.9</v>
       </c>
     </row>
-    <row r="24" ht="17.55" spans="1:11">
+    <row r="24" ht="14.75" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -98679,7 +98687,7 @@
         <v>30829.1</v>
       </c>
     </row>
-    <row r="25" ht="17.55" spans="1:11">
+    <row r="25" ht="14.75" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -98714,7 +98722,7 @@
         <v>10887.1</v>
       </c>
     </row>
-    <row r="26" ht="17.55" spans="1:11">
+    <row r="26" ht="14.75" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -98749,7 +98757,7 @@
         <v>15358.6</v>
       </c>
     </row>
-    <row r="27" ht="17.55" spans="1:11">
+    <row r="27" ht="14.75" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -98784,7 +98792,7 @@
         <v>1063.6</v>
       </c>
     </row>
-    <row r="28" ht="17.55" spans="1:11">
+    <row r="28" ht="14.75" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -98819,7 +98827,7 @@
         <v>18188.3</v>
       </c>
     </row>
-    <row r="29" ht="17.55" spans="1:11">
+    <row r="29" ht="14.75" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -98854,7 +98862,7 @@
         <v>6793.4</v>
       </c>
     </row>
-    <row r="30" ht="17.55" spans="1:11">
+    <row r="30" ht="14.75" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -98889,7 +98897,7 @@
         <v>2054.3</v>
       </c>
     </row>
-    <row r="31" ht="17.55" spans="1:11">
+    <row r="31" ht="14.75" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -98924,7 +98932,7 @@
         <v>2644.7</v>
       </c>
     </row>
-    <row r="32" ht="17.55" spans="1:11">
+    <row r="32" ht="14.75" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -98959,7 +98967,7 @@
         <v>9545.7</v>
       </c>
     </row>
-    <row r="33" ht="17.55" spans="1:11">
+    <row r="33" ht="14.75" spans="1:11">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -98972,7 +98980,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" ht="17.55" spans="1:11">
+    <row r="34" ht="14.75" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -98985,7 +98993,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" ht="17.55" spans="1:11">
+    <row r="35" ht="14.75" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -98998,7 +99006,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" ht="17.55" spans="1:11">
+    <row r="36" ht="14.75" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -99011,7 +99019,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" ht="17.55" spans="1:11">
+    <row r="37" ht="14.75" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -99024,7 +99032,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" ht="17.55" spans="1:11">
+    <row r="38" ht="14.75" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -99037,7 +99045,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" ht="17.55" spans="1:11">
+    <row r="39" ht="14.75" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -99050,7 +99058,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="17.55" spans="1:11">
+    <row r="40" ht="14.75" spans="1:11">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -99063,7 +99071,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" ht="17.55" spans="1:11">
+    <row r="41" ht="14.75" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -99076,7 +99084,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" ht="17.55" spans="1:11">
+    <row r="42" ht="14.75" spans="1:11">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -99089,7 +99097,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" ht="17.55" spans="1:11">
+    <row r="43" ht="14.75" spans="1:11">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -99102,7 +99110,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" ht="17.55" spans="1:11">
+    <row r="44" ht="14.75" spans="1:11">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -99115,7 +99123,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" ht="17.55" spans="1:11">
+    <row r="45" ht="14.75" spans="1:11">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -99128,7 +99136,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" ht="17.55" spans="1:11">
+    <row r="46" ht="14.75" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -99141,7 +99149,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" ht="17.55" spans="1:11">
+    <row r="47" ht="14.75" spans="1:11">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -99154,7 +99162,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" ht="17.55" spans="1:11">
+    <row r="48" ht="14.75" spans="1:11">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -99167,7 +99175,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" ht="17.55" spans="1:11">
+    <row r="49" ht="14.75" spans="1:11">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -99180,7 +99188,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" ht="17.55" spans="1:11">
+    <row r="50" ht="14.75" spans="1:11">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -99193,7 +99201,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" ht="17.55" spans="1:11">
+    <row r="51" ht="14.75" spans="1:11">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -99206,7 +99214,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" ht="17.55" spans="1:11">
+    <row r="52" ht="14.75" spans="1:11">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -99219,7 +99227,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" ht="17.55" spans="1:11">
+    <row r="53" ht="14.75" spans="1:11">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -99232,7 +99240,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" ht="17.55" spans="1:11">
+    <row r="54" ht="14.75" spans="1:11">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -99245,7 +99253,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" ht="17.55" spans="1:11">
+    <row r="55" ht="14.75" spans="1:11">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -99258,7 +99266,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" ht="17.55" spans="1:11">
+    <row r="56" ht="14.75" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -99271,7 +99279,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" ht="17.55" spans="1:11">
+    <row r="57" ht="14.75" spans="1:11">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -99284,7 +99292,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" ht="17.55" spans="1:11">
+    <row r="58" ht="14.75" spans="1:11">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -99297,7 +99305,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" ht="17.55" spans="1:11">
+    <row r="59" ht="14.75" spans="1:11">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -99310,7 +99318,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" ht="17.55" spans="1:11">
+    <row r="60" ht="14.75" spans="1:11">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -99323,7 +99331,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" ht="17.55" spans="1:11">
+    <row r="61" ht="14.75" spans="1:11">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -99336,7 +99344,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" ht="17.55" spans="1:11">
+    <row r="62" ht="14.75" spans="1:11">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -99349,7 +99357,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" ht="17.55" spans="1:11">
+    <row r="63" ht="14.75" spans="1:11">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -99362,7 +99370,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" ht="17.55" spans="1:11">
+    <row r="64" ht="14.75" spans="1:11">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -99379,4 +99387,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>